--- a/server-res/excel/Cfg_Skill.xlsx
+++ b/server-res/excel/Cfg_Skill.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC3" authorId="0">
+    <comment ref="AC2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD3" authorId="0">
+    <comment ref="AD2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="0">
+    <comment ref="AE2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="0">
+    <comment ref="AF2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,13 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,13 +258,6 @@
   </si>
   <si>
     <t>scriptid</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能ID</t>
@@ -425,10 +412,6 @@
   </si>
   <si>
     <t>isdebug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -439,7 +422,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,6 +490,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -554,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +575,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH17"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,347 +822,349 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <f>B3*100+C3</f>
+        <v>100101</v>
+      </c>
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>2000</v>
+      </c>
+      <c r="V3">
+        <v>2000</v>
+      </c>
+      <c r="W3">
+        <v>10011</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>82</v>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f>700000000+A3</f>
+        <v>700100101</v>
+      </c>
+      <c r="AH3" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <f>B4*100+C4</f>
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A16" si="0">B4*100+C4</f>
+        <v>100102</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
         <v>100101</v>
       </c>
-      <c r="B4">
-        <v>1001</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1185,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1215,7 +1203,7 @@
         <v>2000</v>
       </c>
       <c r="W4">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -1236,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE4">
         <v>14</v>
@@ -1245,8 +1233,8 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <f>700000000+A4</f>
-        <v>700100101</v>
+        <f t="shared" ref="AG4:AG9" si="1">700000000+A4</f>
+        <v>700100102</v>
       </c>
       <c r="AH4" s="2" t="b">
         <v>1</v>
@@ -1254,35 +1242,35 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A17" si="0">B5*100+C5</f>
-        <v>100102</v>
+        <f t="shared" si="0"/>
+        <v>100103</v>
       </c>
       <c r="B5" s="2">
         <v>1001</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1291,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1306,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1321,7 +1309,7 @@
         <v>2000</v>
       </c>
       <c r="W5">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -1342,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE5">
         <v>14</v>
@@ -1351,8 +1339,8 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <f t="shared" ref="AG5:AG10" si="1">700000000+A5</f>
-        <v>700100102</v>
+        <f t="shared" si="1"/>
+        <v>700100103</v>
       </c>
       <c r="AH5" s="2" t="b">
         <v>1</v>
@@ -1361,31 +1349,31 @@
     <row r="6" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
-        <v>100103</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1001</v>
+        <v>100201</v>
+      </c>
+      <c r="B6">
+        <v>1002</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
-        <v>100102</v>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1397,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1409,34 +1397,34 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="V6">
         <v>2000</v>
       </c>
       <c r="W6">
-        <v>10013</v>
+        <v>10021</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1448,17 +1436,17 @@
         <v>1</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE6">
         <v>14</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG6">
         <f t="shared" si="1"/>
-        <v>700100103</v>
+        <v>700100201</v>
       </c>
       <c r="AH6" s="2" t="b">
         <v>1</v>
@@ -1467,34 +1455,34 @@
     <row r="7" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
-        <v>100201</v>
+        <v>100202</v>
       </c>
       <c r="B7">
         <v>1002</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="H7" s="2">
+        <v>100201</v>
       </c>
       <c r="I7">
         <v>10001</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1503,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1533,7 +1521,7 @@
         <v>2000</v>
       </c>
       <c r="W7">
-        <v>10021</v>
+        <v>10022</v>
       </c>
       <c r="X7">
         <v>2</v>
@@ -1554,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE7">
         <v>14</v>
@@ -1564,7 +1552,7 @@
       </c>
       <c r="AG7">
         <f t="shared" si="1"/>
-        <v>700100201</v>
+        <v>700100202</v>
       </c>
       <c r="AH7" s="2" t="b">
         <v>1</v>
@@ -1573,58 +1561,58 @@
     <row r="8" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
-        <v>100202</v>
+        <v>100301</v>
       </c>
       <c r="B8">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
-        <v>100201</v>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>100</v>
@@ -1633,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="V8">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="W8">
-        <v>10022</v>
+        <v>10031</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -1660,17 +1648,17 @@
         <v>1</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE8">
         <v>14</v>
       </c>
       <c r="AF8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <f t="shared" si="1"/>
-        <v>700100202</v>
+        <v>700100301</v>
       </c>
       <c r="AH8" s="2" t="b">
         <v>1</v>
@@ -1679,28 +1667,28 @@
     <row r="9" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
-        <v>100301</v>
+        <v>100302</v>
       </c>
       <c r="B9">
         <v>1003</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="H9" s="2">
+        <v>100301</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1745,7 +1733,7 @@
         <v>3000</v>
       </c>
       <c r="W9">
-        <v>10031</v>
+        <v>10032</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1766,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE9">
         <v>14</v>
@@ -1776,113 +1764,113 @@
       </c>
       <c r="AG9">
         <f t="shared" si="1"/>
-        <v>700100301</v>
+        <v>700100302</v>
       </c>
       <c r="AH9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
-        <v>100302</v>
-      </c>
-      <c r="B10">
-        <v>1003</v>
-      </c>
-      <c r="C10">
+        <v>900101</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="V10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="W10" s="2">
+        <v>90011</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>100301</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>100</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>3000</v>
-      </c>
-      <c r="V10">
-        <v>3000</v>
-      </c>
-      <c r="W10">
-        <v>10032</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>5</v>
-      </c>
-      <c r="Z10">
-        <v>10</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE10">
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
         <v>14</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="1"/>
-        <v>700100302</v>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <f>700000000+A10</f>
+        <v>700900101</v>
       </c>
       <c r="AH10" s="2" t="b">
         <v>1</v>
@@ -1891,19 +1879,19 @@
     <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
-        <v>900101</v>
+        <v>900102</v>
       </c>
       <c r="B11" s="2">
         <v>9001</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1918,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1927,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -1957,7 +1945,7 @@
         <v>2000</v>
       </c>
       <c r="W11" s="2">
-        <v>90011</v>
+        <v>90012</v>
       </c>
       <c r="X11" s="2">
         <v>1</v>
@@ -1987,8 +1975,8 @@
         <v>0</v>
       </c>
       <c r="AG11" s="2">
-        <f>700000000+A11</f>
-        <v>700900101</v>
+        <f t="shared" ref="AG11:AG16" si="2">700000000+A11</f>
+        <v>700900102</v>
       </c>
       <c r="AH11" s="2" t="b">
         <v>1</v>
@@ -1997,19 +1985,19 @@
     <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
-        <v>900102</v>
+        <v>900103</v>
       </c>
       <c r="B12" s="2">
         <v>9001</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2024,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -2033,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -2048,7 +2036,7 @@
         <v>1000</v>
       </c>
       <c r="R12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -2063,7 +2051,7 @@
         <v>2000</v>
       </c>
       <c r="W12" s="2">
-        <v>90012</v>
+        <v>90013</v>
       </c>
       <c r="X12" s="2">
         <v>1</v>
@@ -2083,8 +2071,8 @@
       <c r="AC12" s="2">
         <v>1</v>
       </c>
-      <c r="AD12" s="2">
-        <v>0</v>
+      <c r="AD12" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="AE12" s="2">
         <v>14</v>
@@ -2093,8 +2081,8 @@
         <v>0</v>
       </c>
       <c r="AG12" s="2">
-        <f t="shared" ref="AG12:AG17" si="2">700000000+A12</f>
-        <v>700900102</v>
+        <f t="shared" si="2"/>
+        <v>700900103</v>
       </c>
       <c r="AH12" s="2" t="b">
         <v>1</v>
@@ -2103,19 +2091,19 @@
     <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
-        <v>900103</v>
+        <v>900201</v>
       </c>
       <c r="B13" s="2">
-        <v>9001</v>
+        <v>9002</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2139,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2154,31 +2142,31 @@
         <v>1000</v>
       </c>
       <c r="R13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S13" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="V13" s="2">
         <v>2000</v>
       </c>
       <c r="W13" s="2">
-        <v>90013</v>
+        <v>90021</v>
       </c>
       <c r="X13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="2">
         <v>0</v>
       </c>
       <c r="Z13" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AA13" s="2">
         <v>0</v>
@@ -2189,18 +2177,18 @@
       <c r="AC13" s="2">
         <v>1</v>
       </c>
-      <c r="AD13" s="2" t="s">
-        <v>77</v>
+      <c r="AD13" s="2">
+        <v>0</v>
       </c>
       <c r="AE13" s="2">
         <v>14</v>
       </c>
       <c r="AF13" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG13" s="2">
         <f t="shared" si="2"/>
-        <v>700900103</v>
+        <v>700900201</v>
       </c>
       <c r="AH13" s="2" t="b">
         <v>1</v>
@@ -2209,19 +2197,19 @@
     <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
-        <v>900201</v>
+        <v>900202</v>
       </c>
       <c r="B14" s="2">
         <v>9002</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2236,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2245,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -2275,7 +2263,7 @@
         <v>2000</v>
       </c>
       <c r="W14" s="2">
-        <v>90021</v>
+        <v>90022</v>
       </c>
       <c r="X14" s="2">
         <v>2</v>
@@ -2306,7 +2294,7 @@
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="2"/>
-        <v>700900201</v>
+        <v>700900202</v>
       </c>
       <c r="AH14" s="2" t="b">
         <v>1</v>
@@ -2315,19 +2303,19 @@
     <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
-        <v>900202</v>
+        <v>900301</v>
       </c>
       <c r="B15" s="2">
-        <v>9002</v>
+        <v>9003</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2342,31 +2330,31 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2">
         <v>100</v>
@@ -2375,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="V15" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="W15" s="2">
-        <v>90022</v>
+        <v>90031</v>
       </c>
       <c r="X15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z15" s="2">
         <v>10</v>
@@ -2401,18 +2389,18 @@
       <c r="AC15" s="2">
         <v>1</v>
       </c>
-      <c r="AD15" s="2">
-        <v>0</v>
+      <c r="AD15" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AE15" s="2">
         <v>14</v>
       </c>
       <c r="AF15" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="2"/>
-        <v>700900202</v>
+        <v>700900301</v>
       </c>
       <c r="AH15" s="2" t="b">
         <v>1</v>
@@ -2421,19 +2409,19 @@
     <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
-        <v>900301</v>
+        <v>900302</v>
       </c>
       <c r="B16" s="2">
         <v>9003</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2487,7 +2475,7 @@
         <v>3000</v>
       </c>
       <c r="W16" s="2">
-        <v>90031</v>
+        <v>90032</v>
       </c>
       <c r="X16" s="2">
         <v>1</v>
@@ -2508,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE16" s="2">
         <v>14</v>
@@ -2518,115 +2506,9 @@
       </c>
       <c r="AG16" s="2">
         <f t="shared" si="2"/>
-        <v>700900301</v>
+        <v>700900302</v>
       </c>
       <c r="AH16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <f t="shared" si="0"/>
-        <v>900302</v>
-      </c>
-      <c r="B17" s="2">
-        <v>9003</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>5</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>1</v>
-      </c>
-      <c r="S17" s="2">
-        <v>100</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>3000</v>
-      </c>
-      <c r="V17" s="2">
-        <v>3000</v>
-      </c>
-      <c r="W17" s="2">
-        <v>90032</v>
-      </c>
-      <c r="X17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>10</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>14</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="2">
-        <f t="shared" si="2"/>
-        <v>700900302</v>
-      </c>
-      <c r="AH17" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/server-res/excel/Cfg_Skill.xlsx
+++ b/server-res/excel/Cfg_Skill.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,6 +416,65 @@
   </si>
   <si>
     <t>调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detach_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给目标增加1个持续扣血的状态, 每3秒造成2点伤害, 持续30秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量上限增加50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">message SkillAttachStatus
+{
+ uint32 typeid = 1;//BUUF类型ID    
+ uint32 lev  = 2;//BUUF等级
+ uint32 power = 3;//BUFF数值
+ uint32 secs = 4;//N秒1次
+ uint32 times = 5;//持续几次
+}
+</t>
+  </si>
+  <si>
+    <t>message SkillDetachStatus
+{
+ uint32 id   = 1;//状态编号  
+ uint32 type = 2;//状态类型
+ uint32 flag = 3;//状态掩码
+};</t>
+  </si>
+  <si>
+    <t>[{"type:2, "flag":2},{"flag":1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":5 , "lev":1 ,"power":2 ,"secs":3 ,"times":10 }]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{ "id":1 , "lev":1 ,"power": ,"secs":60 ,"times":1 }]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":32}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"type:1, "flag":3}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +512,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -474,12 +548,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -784,43 +872,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH16"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.75" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="58.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="102.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="54.875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -923,90 +1021,102 @@
       <c r="AH1" t="s">
         <v>76</v>
       </c>
+      <c r="AI1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:38" s="8" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="8" t="s">
         <v>58</v>
       </c>
       <c r="AC2" s="1" t="s">
@@ -1021,14 +1131,21 @@
       <c r="AF2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="8" t="s">
         <v>59</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="AJ2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3">
         <f>B3*100+C3</f>
         <v>100101</v>
@@ -1133,8 +1250,12 @@
       <c r="AH3" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A16" si="0">B4*100+C4</f>
         <v>100102</v>
@@ -1239,8 +1360,18 @@
       <c r="AH4" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AI4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>100103</v>
@@ -1345,8 +1476,9 @@
       <c r="AH5" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK5" s="3"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>100201</v>
@@ -1451,8 +1583,12 @@
       <c r="AH6" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>100202</v>
@@ -1557,8 +1693,9 @@
       <c r="AH7" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK7" s="3"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>100301</v>
@@ -1663,8 +1800,18 @@
       <c r="AH8" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AI8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>100302</v>
@@ -1769,8 +1916,9 @@
       <c r="AH9" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK9" s="3"/>
     </row>
-    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>900101</v>
@@ -1875,8 +2023,11 @@
       <c r="AH10" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>900102</v>
@@ -1981,8 +2132,11 @@
       <c r="AH11" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>900103</v>
@@ -2087,8 +2241,11 @@
       <c r="AH12" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>900201</v>
@@ -2193,8 +2350,11 @@
       <c r="AH13" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>900202</v>
@@ -2299,8 +2459,11 @@
       <c r="AH14" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>900301</v>
@@ -2405,8 +2568,11 @@
       <c r="AH15" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>900302</v>
@@ -2511,6 +2677,8 @@
       <c r="AH16" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AJ16" s="3"/>
+      <c r="AL16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
